--- a/Documents/GiaoDien.xlsx
+++ b/Documents/GiaoDien.xlsx
@@ -4,19 +4,21 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12495" activeTab="2"/>
+    <workbookView windowWidth="28125" windowHeight="12495" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Login" sheetId="2" r:id="rId2"/>
     <sheet name="Register" sheetId="3" r:id="rId3"/>
+    <sheet name="Role" sheetId="4" r:id="rId4"/>
+    <sheet name="job" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>admin@app.com</t>
   </si>
@@ -53,18 +55,21 @@
   <si>
     <t>https://mailtrap.io/inboxes/2193365/messages/3438093076</t>
   </si>
+  <si>
+    <t>https://www.linkedin.com/jobs/view/3593245640/?trackingId=8FwBkdUG40s4O%2FGpWO4AiQ%3D%3D&amp;refId=933e26bb-1cbf-4ec9-90e3-11fc3a11293e&amp;midToken=AQHx3Y_UFby8Sw&amp;midSig=1R29SdpCne4WM1&amp;trk=eml-email_job_alert_digest_01-job_card-0-jobcard_body&amp;trkEmail=eml-email_job_alert_digest_01-job_card-0-jobcard_body-null-1lmdlq~lha6q00q~eo-null-null&amp;eid=1lmdlq-lha6q00q-eo</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -80,30 +85,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -118,12 +100,20 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
@@ -131,17 +121,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -165,21 +154,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -209,10 +183,11 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -223,8 +198,31 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -239,19 +237,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -263,163 +417,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -444,35 +442,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -516,6 +485,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -530,151 +508,171 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1666,6 +1664,310 @@
         <a:xfrm>
           <a:off x="609600" y="42862500"/>
           <a:ext cx="18459450" cy="4743450"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="571500"/>
+          <a:ext cx="11191875" cy="4819650"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="5905500"/>
+          <a:ext cx="7772400" cy="4743450"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>371475</xdr:colOff>
+      <xdr:row>112</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1219200" y="12763500"/>
+          <a:ext cx="7077075" cy="8648700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>119</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>161</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1219200" y="22669500"/>
+          <a:ext cx="10629900" cy="8162925"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>168</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>438150</xdr:colOff>
+      <xdr:row>204</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1828800" y="32004000"/>
+          <a:ext cx="12630150" cy="6934200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>208</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>239</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Picture 6"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1219200" y="39624000"/>
+          <a:ext cx="16773525" cy="6067425"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1219200" y="762000"/>
+          <a:ext cx="8772525" cy="4810125"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2037,7 +2339,7 @@
   <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A247" workbookViewId="0">
+    <sheetView topLeftCell="A247" workbookViewId="0">
       <selection activeCell="P258" sqref="P258"/>
     </sheetView>
   </sheetViews>
@@ -2047,4 +2349,44 @@
   <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView topLeftCell="A226" workbookViewId="0">
+      <selection activeCell="D247" sqref="D247"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="V27" sqref="V27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/Documents/GiaoDien.xlsx
+++ b/Documents/GiaoDien.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12495" activeTab="4"/>
+    <workbookView windowWidth="28125" windowHeight="12495" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -12,13 +12,14 @@
     <sheet name="Register" sheetId="3" r:id="rId3"/>
     <sheet name="Role" sheetId="4" r:id="rId4"/>
     <sheet name="job" sheetId="5" r:id="rId5"/>
+    <sheet name="Tổng hợp giao diện" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t>admin@app.com</t>
   </si>
@@ -58,16 +59,58 @@
   <si>
     <t>https://www.linkedin.com/jobs/view/3593245640/?trackingId=8FwBkdUG40s4O%2FGpWO4AiQ%3D%3D&amp;refId=933e26bb-1cbf-4ec9-90e3-11fc3a11293e&amp;midToken=AQHx3Y_UFby8Sw&amp;midSig=1R29SdpCne4WM1&amp;trk=eml-email_job_alert_digest_01-job_card-0-jobcard_body&amp;trkEmail=eml-email_job_alert_digest_01-job_card-0-jobcard_body-null-1lmdlq~lha6q00q~eo-null-null&amp;eid=1lmdlq-lha6q00q-eo</t>
   </si>
+  <si>
+    <t>có sử dụng socket</t>
+  </si>
+  <si>
+    <t>http://vuejs.local/task-websockets</t>
+  </si>
+  <si>
+    <t>1 php artisan websockets:serve</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   2 clear</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   3 php artisan migrate:refresh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   4 php .\artisan db:seed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   5 php .\artisan db:seed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   6 php artisan migrate:refresh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   7 php .\artisan db:seed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   8 php .\artisan passport:install --force</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   9 php .\artisan passport:key --force</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  10 php artisan make:middleware Localization</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  11 php artisan config:cache</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  12 yarn add vue-i18n@9</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -84,38 +127,9 @@
       <charset val="134"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -130,7 +144,84 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -145,7 +236,7 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -159,55 +250,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -220,9 +264,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -237,25 +280,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -267,13 +298,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -291,7 +340,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -303,25 +382,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -333,91 +460,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -446,16 +489,36 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="double">
+      <right style="thin">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="double">
+      <top style="thin">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
+      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -485,25 +548,16 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
+      <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
+      <right style="double">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
+      <top style="double">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -517,29 +571,18 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -549,130 +592,130 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1968,6 +2011,977 @@
         <a:xfrm>
           <a:off x="1219200" y="762000"/>
           <a:ext cx="8772525" cy="4810125"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="190500"/>
+          <a:ext cx="18554700" cy="8286750"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="8953500"/>
+          <a:ext cx="18440400" cy="5791200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>108</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="15240000"/>
+          <a:ext cx="18992850" cy="5419725"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>110</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>504825</xdr:colOff>
+      <xdr:row>141</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1219200" y="20955000"/>
+          <a:ext cx="8429625" cy="5934075"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>144</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>438150</xdr:colOff>
+      <xdr:row>181</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1219200" y="27432000"/>
+          <a:ext cx="8972550" cy="7105650"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>185</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>561975</xdr:colOff>
+      <xdr:row>220</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Picture 6"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1219200" y="35242500"/>
+          <a:ext cx="18240375" cy="6753225"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>223</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>249</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Picture 7"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1219200" y="42481500"/>
+          <a:ext cx="12192000" cy="5086350"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>272</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>319</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="Picture 8"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1219200" y="51816000"/>
+          <a:ext cx="12887325" cy="9124950"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>324</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>363</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="Picture 9"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId9"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1219200" y="61722000"/>
+          <a:ext cx="17221200" cy="7572375"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>368</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>400</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="Picture 10"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId10"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1219200" y="70104000"/>
+          <a:ext cx="16735425" cy="6229350"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>403</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>390525</xdr:colOff>
+      <xdr:row>449</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="Picture 11"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId11"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1219200" y="76771500"/>
+          <a:ext cx="18068925" cy="8810625"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>452</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>495</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="13" name="Picture 12"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId12"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1219200" y="86106000"/>
+          <a:ext cx="17992725" cy="8362950"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>500</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>542</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="14" name="Picture 13"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId13"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1219200" y="95250000"/>
+          <a:ext cx="18030825" cy="8105775"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>546</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>594</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="15" name="Picture 14"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId14"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1219200" y="104013000"/>
+          <a:ext cx="12668250" cy="9229725"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>597</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>642</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="16" name="Picture 15"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId15"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1219200" y="113728500"/>
+          <a:ext cx="16583025" cy="8667750"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>646</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>689</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="17" name="Picture 16"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId16"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1219200" y="123063000"/>
+          <a:ext cx="14306550" cy="8248650"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>693</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>731</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="18" name="Picture 17"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId17"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1219200" y="132016500"/>
+          <a:ext cx="12172950" cy="7343775"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>733</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>768</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="19" name="Picture 18"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId18"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1219200" y="139636500"/>
+          <a:ext cx="12553950" cy="6734175"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>771</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>812</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="20" name="Picture 19"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId19"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1219200" y="146875500"/>
+          <a:ext cx="13582650" cy="7972425"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>815</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>848</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="21" name="Picture 20"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId20"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1219200" y="155257500"/>
+          <a:ext cx="8010525" cy="6391275"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>852</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>891</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="22" name="Picture 21"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId21"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1219200" y="162306000"/>
+          <a:ext cx="16144875" cy="7486650"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>896</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>936</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="23" name="Picture 22"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId22"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1219200" y="170688000"/>
+          <a:ext cx="14649450" cy="7686675"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>940</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>988</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="24" name="Picture 23"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId23"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1219200" y="179070000"/>
+          <a:ext cx="17106900" cy="9286875"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2296,7 +3310,7 @@
   <sheetPr/>
   <dimension ref="C47:D219"/>
   <sheetViews>
-    <sheetView topLeftCell="A187" workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="D219" sqref="D219"/>
     </sheetView>
   </sheetViews>
@@ -2373,7 +3387,7 @@
   <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="V27" sqref="V27"/>
     </sheetView>
   </sheetViews>
@@ -2389,4 +3403,92 @@
   <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="C255:D270"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A973" workbookViewId="0">
+      <selection activeCell="C996" sqref="C996"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="3"/>
+  <sheetData>
+    <row r="255" spans="3:3">
+      <c r="C255" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="256" spans="3:3">
+      <c r="C256" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="259" spans="4:4">
+      <c r="D259" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="260" spans="4:4">
+      <c r="D260" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="261" spans="4:4">
+      <c r="D261" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="262" spans="4:4">
+      <c r="D262" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="263" spans="4:4">
+      <c r="D263" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="264" spans="4:4">
+      <c r="D264" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="265" spans="4:4">
+      <c r="D265" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="266" spans="4:4">
+      <c r="D266" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="267" spans="4:4">
+      <c r="D267" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="268" spans="4:4">
+      <c r="D268" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="269" spans="4:4">
+      <c r="D269" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="270" spans="4:4">
+      <c r="D270" t="s">
+        <v>26</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>